--- a/data/RootInn.xlsx
+++ b/data/RootInn.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="5620" tabRatio="500"/>
+    <workbookView windowWidth="24800" windowHeight="9220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
+    <sheet name="desk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311">
   <si>
     <t>id</t>
   </si>
@@ -859,6 +860,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="苹方-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>230g/</t>
     </r>
     <r>
@@ -989,6 +995,194 @@
   <si>
     <t>62</t>
   </si>
+  <si>
+    <t>colorType</t>
+  </si>
+  <si>
+    <t>吧台1</t>
+  </si>
+  <si>
+    <r>
+      <t>吧台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吧台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吧台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吧台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吧台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>吧台7</t>
+  </si>
+  <si>
+    <r>
+      <t>吧台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吧台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>外摆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>外摆2</t>
+  </si>
+  <si>
+    <t>外摆3</t>
+  </si>
+  <si>
+    <t>外摆4</t>
+  </si>
+  <si>
+    <t>外摆5</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>卡1</t>
+  </si>
+  <si>
+    <r>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>临1</t>
+  </si>
+  <si>
+    <r>
+      <t>临</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -996,12 +1190,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1009,7 +1203,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="苹方-简"/>
+      <name val="Songti SC"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1033,9 +1227,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1043,51 +1260,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1095,7 +1268,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1103,14 +1299,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1118,58 +1328,45 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1177,14 +1374,6 @@
       <color rgb="FF000000"/>
       <name val="Lohit Devanagari"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1196,7 +1385,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,43 +1511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,31 +1529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,25 +1541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,55 +1559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,13 +1618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,30 +1648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1493,172 +1662,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1674,55 +1859,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2061,595 +2246,595 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="1"/>
-    <col min="3" max="3" width="22.5803571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1964285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.4642857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="3"/>
-    <col min="8" max="8" width="16.2589285714286" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5178571428571" style="2"/>
+    <col min="3" max="3" width="22.5803571428571" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.1964285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.4642857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="4"/>
+    <col min="8" max="8" width="16.2589285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="2" customWidth="1"/>
     <col min="10" max="1025" width="11.5178571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="b">
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:7">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="b">
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="b">
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="b">
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="b">
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="b">
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="b">
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="b">
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="15.2" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="b">
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="b">
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="b">
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="b">
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="16" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="b">
+      <c r="F18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="15.2" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="b">
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="15.2" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="b">
+      <c r="F20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.2" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="b">
+      <c r="F21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.2" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="b">
+      <c r="F22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="16" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="b">
+      <c r="F23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="16" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="b">
+      <c r="F24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="15.2" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="b">
+      <c r="F25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.2" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="b">
+      <c r="F26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="16" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="b">
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="15.2" spans="3:3">
-      <c r="C28" s="16"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" ht="15.2" spans="3:3">
-      <c r="C29" s="16"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" ht="15.2" spans="3:3">
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -2672,329 +2857,329 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.30357142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3035714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.2232142857143" style="2" customWidth="1"/>
-    <col min="4" max="6" width="11.5178571428571" style="1"/>
-    <col min="7" max="7" width="19.6964285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5178571428571" style="3"/>
-    <col min="9" max="9" width="17.0535714285714" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.6339285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.1607142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.8214285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="50.5892857142857" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5178571428571" style="1"/>
-    <col min="16" max="16" width="11.5178571428571" style="3"/>
-    <col min="17" max="17" width="11.5178571428571" style="1"/>
+    <col min="1" max="1" width="5.30357142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.3035714285714" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.2232142857143" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.5178571428571" style="2"/>
+    <col min="7" max="7" width="19.6964285714286" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5178571428571" style="4"/>
+    <col min="9" max="9" width="17.0535714285714" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.6339285714286" style="2" customWidth="1"/>
+    <col min="11" max="11" width="39.1607142857143" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.8214285714286" style="2" customWidth="1"/>
+    <col min="13" max="13" width="50.5892857142857" style="2" customWidth="1"/>
+    <col min="14" max="15" width="11.5178571428571" style="2"/>
+    <col min="16" max="16" width="11.5178571428571" style="4"/>
+    <col min="17" max="17" width="11.5178571428571" style="2"/>
     <col min="18" max="1025" width="11.5178571428571"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3003,47 +3188,47 @@
       <c r="C7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3052,47 +3237,47 @@
       <c r="C8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3101,47 +3286,47 @@
       <c r="C9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="H9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="4" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3150,47 +3335,47 @@
       <c r="C10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="H10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3199,1727 +3384,1727 @@
       <c r="C11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="11"/>
+      <c r="M11" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="H13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="H14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="H15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="H16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="4" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6" t="s">
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="H17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="4" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6" t="s">
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>200</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="H18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="4" t="s">
+      <c r="L18" s="11"/>
+      <c r="M18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>205</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="H19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="4" t="s">
+      <c r="L19" s="11"/>
+      <c r="M19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="H20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>217</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="H21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="4" t="s">
+      <c r="L21" s="11"/>
+      <c r="M21" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="P21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6"/>
+      <c r="P21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="H22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="4" t="s">
+      <c r="L22" s="11"/>
+      <c r="M22" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="6"/>
+      <c r="P22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H23" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="H23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="4" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="P23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="6"/>
+      <c r="P23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="H24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="4" t="s">
+      <c r="L24" s="11"/>
+      <c r="M24" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="6"/>
+      <c r="P24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="H25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="4" t="s">
+      <c r="L25" s="11"/>
+      <c r="M25" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6"/>
+      <c r="P25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>239</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="H26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="4" t="s">
+      <c r="L26" s="11"/>
+      <c r="M26" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="P26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="6"/>
+      <c r="P26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="H27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="4" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6">
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
         <v>35</v>
       </c>
-      <c r="P27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="6"/>
+      <c r="P27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="H28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="4" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
         <v>35</v>
       </c>
-      <c r="P28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="6"/>
+      <c r="P28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="H29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="4" t="s">
+      <c r="L29" s="11"/>
+      <c r="M29" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N29" s="6">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6">
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
         <v>35</v>
       </c>
-      <c r="P29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="6"/>
+      <c r="P29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="H30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="4" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N30" s="6">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6">
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
         <v>35</v>
       </c>
-      <c r="P30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="6"/>
+      <c r="P30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="H31" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="4" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N31" s="6">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6">
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
         <v>35</v>
       </c>
-      <c r="P31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="6"/>
+      <c r="P31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="H32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N32" s="6">
-        <v>1</v>
-      </c>
-      <c r="O32" s="6">
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
         <v>35</v>
       </c>
-      <c r="P32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="6"/>
+      <c r="P32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="H33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="4" t="s">
+      <c r="L33" s="11"/>
+      <c r="M33" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N33" s="6">
-        <v>1</v>
-      </c>
-      <c r="O33" s="6">
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
         <v>35</v>
       </c>
-      <c r="P33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="6"/>
+      <c r="P33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="s">
+      <c r="H34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="4" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N34" s="6">
-        <v>1</v>
-      </c>
-      <c r="O34" s="6">
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
         <v>35</v>
       </c>
-      <c r="P34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="6"/>
+      <c r="P34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="H35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="4" t="s">
+      <c r="L35" s="11"/>
+      <c r="M35" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N35" s="6">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6">
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
         <v>35</v>
       </c>
-      <c r="P35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="6"/>
+      <c r="P35" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H36" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="H36" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="4" t="s">
+      <c r="L36" s="11"/>
+      <c r="M36" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N36" s="6">
-        <v>1</v>
-      </c>
-      <c r="O36" s="6">
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
         <v>35</v>
       </c>
-      <c r="P36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="6"/>
+      <c r="P36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H37" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4" t="s">
+      <c r="H37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="4" t="s">
+      <c r="L37" s="11"/>
+      <c r="M37" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N37" s="6">
-        <v>1</v>
-      </c>
-      <c r="O37" s="6">
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5">
         <v>35</v>
       </c>
-      <c r="P37" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="6"/>
+      <c r="P37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H38" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="H38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="4" t="s">
+      <c r="L38" s="11"/>
+      <c r="M38" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N38" s="6">
-        <v>1</v>
-      </c>
-      <c r="O38" s="6">
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
         <v>35</v>
       </c>
-      <c r="P38" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="6"/>
+      <c r="P38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="H39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N39" s="6">
-        <v>1</v>
-      </c>
-      <c r="O39" s="6">
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="O39" s="5">
         <v>35</v>
       </c>
-      <c r="P39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="6"/>
+      <c r="P39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H40" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="H40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N40" s="6">
-        <v>1</v>
-      </c>
-      <c r="O40" s="6">
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
         <v>35</v>
       </c>
-      <c r="P40" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="6"/>
+      <c r="P40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="4" t="s">
+      <c r="H41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N41" s="6">
-        <v>1</v>
-      </c>
-      <c r="O41" s="6">
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5">
         <v>35</v>
       </c>
-      <c r="P41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="6"/>
+      <c r="P41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="H42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N42" s="6">
-        <v>1</v>
-      </c>
-      <c r="O42" s="6">
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
         <v>35</v>
       </c>
-      <c r="P42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="6"/>
+      <c r="P42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4" t="s">
+      <c r="H43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N43" s="6">
-        <v>1</v>
-      </c>
-      <c r="O43" s="6">
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
         <v>35</v>
       </c>
-      <c r="P43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="6"/>
+      <c r="P43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H44" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="4" t="s">
+      <c r="H44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N44" s="6">
-        <v>1</v>
-      </c>
-      <c r="O44" s="6">
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5">
         <v>35</v>
       </c>
-      <c r="P44" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="6"/>
+      <c r="P44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4" t="s">
+      <c r="H45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N45" s="6">
-        <v>1</v>
-      </c>
-      <c r="O45" s="6">
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5">
         <v>35</v>
       </c>
-      <c r="P45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="6"/>
+      <c r="P45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -4928,49 +5113,49 @@
       <c r="C46" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>49</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4" t="s">
+      <c r="H46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="L46" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N46" s="6">
-        <v>1</v>
-      </c>
-      <c r="O46" s="6">
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
         <v>35</v>
       </c>
-      <c r="P46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="6"/>
+      <c r="P46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -4979,49 +5164,49 @@
       <c r="C47" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>49</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H47" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" s="4" t="s">
+      <c r="H47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N47" s="6">
-        <v>1</v>
-      </c>
-      <c r="O47" s="6">
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
         <v>35</v>
       </c>
-      <c r="P47" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="6"/>
+      <c r="P47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5030,49 +5215,49 @@
       <c r="C48" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>49</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4" t="s">
+      <c r="H48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N48" s="6">
-        <v>1</v>
-      </c>
-      <c r="O48" s="6">
+      <c r="N48" s="5">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
         <v>35</v>
       </c>
-      <c r="P48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="6"/>
+      <c r="P48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5081,49 +5266,49 @@
       <c r="C49" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>49</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H49" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4" t="s">
+      <c r="H49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N49" s="6">
-        <v>1</v>
-      </c>
-      <c r="O49" s="6">
+      <c r="N49" s="5">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
         <v>35</v>
       </c>
-      <c r="P49" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="6"/>
+      <c r="P49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>267</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -5132,49 +5317,49 @@
       <c r="C50" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>49</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H50" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4" t="s">
+      <c r="H50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N50" s="6">
-        <v>1</v>
-      </c>
-      <c r="O50" s="6">
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5">
         <v>35</v>
       </c>
-      <c r="P50" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="6"/>
+      <c r="P50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5183,49 +5368,49 @@
       <c r="C51" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>49</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4" t="s">
+      <c r="H51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L51" s="13" t="s">
+      <c r="L51" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N51" s="6">
-        <v>1</v>
-      </c>
-      <c r="O51" s="6">
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5">
         <v>35</v>
       </c>
-      <c r="P51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="6"/>
+      <c r="P51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5234,49 +5419,49 @@
       <c r="C52" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>49</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4" t="s">
+      <c r="H52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L52" s="13" t="s">
+      <c r="L52" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N52" s="6">
-        <v>1</v>
-      </c>
-      <c r="O52" s="6">
+      <c r="N52" s="5">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5">
         <v>35</v>
       </c>
-      <c r="P52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="6"/>
+      <c r="P52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -5285,49 +5470,49 @@
       <c r="C53" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>49</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H53" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4" t="s">
+      <c r="H53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L53" s="13" t="s">
+      <c r="L53" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N53" s="6">
-        <v>1</v>
-      </c>
-      <c r="O53" s="6">
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
         <v>35</v>
       </c>
-      <c r="P53" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="6"/>
+      <c r="P53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="5"/>
     </row>
     <row r="54" ht="16" spans="1:17">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -5336,49 +5521,49 @@
       <c r="C54" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>49</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H54" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4" t="s">
+      <c r="H54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L54" s="13" t="s">
+      <c r="L54" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N54" s="6">
-        <v>1</v>
-      </c>
-      <c r="O54" s="6">
+      <c r="N54" s="5">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5">
         <v>35</v>
       </c>
-      <c r="P54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="6"/>
+      <c r="P54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55" ht="16" spans="1:17">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5387,49 +5572,49 @@
       <c r="C55" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4" t="s">
+      <c r="H55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N55" s="6">
-        <v>1</v>
-      </c>
-      <c r="O55" s="6">
+      <c r="N55" s="5">
+        <v>1</v>
+      </c>
+      <c r="O55" s="5">
         <v>35</v>
       </c>
-      <c r="P55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="6"/>
+      <c r="P55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56" ht="16" spans="1:17">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -5438,49 +5623,49 @@
       <c r="C56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H56" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4" t="s">
+      <c r="H56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L56" s="13" t="s">
+      <c r="L56" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N56" s="6">
-        <v>1</v>
-      </c>
-      <c r="O56" s="6">
+      <c r="N56" s="5">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5">
         <v>35</v>
       </c>
-      <c r="P56" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="6"/>
+      <c r="P56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57" ht="16" spans="1:17">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -5489,49 +5674,49 @@
       <c r="C57" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H57" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4" t="s">
+      <c r="H57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N57" s="6">
-        <v>1</v>
-      </c>
-      <c r="O57" s="6">
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5">
         <v>35</v>
       </c>
-      <c r="P57" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="6"/>
+      <c r="P57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="5"/>
     </row>
     <row r="58" ht="16" spans="1:17">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -5540,49 +5725,49 @@
       <c r="C58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H58" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4" t="s">
+      <c r="H58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N58" s="6">
-        <v>1</v>
-      </c>
-      <c r="O58" s="6">
+      <c r="N58" s="5">
+        <v>1</v>
+      </c>
+      <c r="O58" s="5">
         <v>35</v>
       </c>
-      <c r="P58" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="6"/>
+      <c r="P58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="5"/>
     </row>
     <row r="59" ht="16" spans="1:17">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5591,49 +5776,49 @@
       <c r="C59" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H59" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="4" t="s">
+      <c r="H59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L59" s="13" t="s">
+      <c r="L59" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N59" s="6">
-        <v>1</v>
-      </c>
-      <c r="O59" s="6">
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="5">
         <v>35</v>
       </c>
-      <c r="P59" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="6"/>
+      <c r="P59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="5"/>
     </row>
     <row r="60" ht="16" spans="1:17">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -5642,49 +5827,49 @@
       <c r="C60" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H60" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="4" t="s">
+      <c r="H60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="M60" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N60" s="6">
-        <v>1</v>
-      </c>
-      <c r="O60" s="6">
+      <c r="N60" s="5">
+        <v>1</v>
+      </c>
+      <c r="O60" s="5">
         <v>35</v>
       </c>
-      <c r="P60" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="6"/>
+      <c r="P60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="5"/>
     </row>
     <row r="61" ht="16" spans="1:17">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -5693,49 +5878,49 @@
       <c r="C61" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H61" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="H61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L61" s="13" t="s">
+      <c r="L61" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="M61" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N61" s="6">
-        <v>1</v>
-      </c>
-      <c r="O61" s="6">
+      <c r="N61" s="5">
+        <v>1</v>
+      </c>
+      <c r="O61" s="5">
         <v>35</v>
       </c>
-      <c r="P61" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="6"/>
+      <c r="P61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="5"/>
     </row>
     <row r="62" ht="16" spans="1:17">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -5744,49 +5929,49 @@
       <c r="C62" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H62" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4" t="s">
+      <c r="H62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L62" s="13" t="s">
+      <c r="L62" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="M62" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N62" s="6">
-        <v>1</v>
-      </c>
-      <c r="O62" s="6">
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
+      <c r="O62" s="5">
         <v>35</v>
       </c>
-      <c r="P62" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="6"/>
+      <c r="P62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="5"/>
     </row>
     <row r="63" ht="16" spans="1:17">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -5795,46 +5980,46 @@
       <c r="C63" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H63" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4" t="s">
+      <c r="H63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L63" s="13" t="s">
+      <c r="L63" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="M63" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="N63" s="6">
-        <v>1</v>
-      </c>
-      <c r="O63" s="6">
+      <c r="N63" s="5">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5">
         <v>35</v>
       </c>
-      <c r="P63" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="6"/>
+      <c r="P63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -5844,4 +6029,307 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" ht="14.4" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.4" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="14.4" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/RootInn.xlsx
+++ b/data/RootInn.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="9220" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="24800" windowHeight="9220" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
     <sheet name="desk" sheetId="3" r:id="rId3"/>
+    <sheet name="lottery" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
   <si>
     <t>id</t>
   </si>
@@ -1182,6 +1183,42 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>一等奖</t>
+  </si>
+  <si>
+    <t>images/lottery/1_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/2_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/3_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/4_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/5_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/6_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/7_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/8_prize.png</t>
+  </si>
+  <si>
+    <t>images/lottery/thanks.png</t>
   </si>
 </sst>
 </file>
@@ -1821,12 +1858,12 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2252,19 +2289,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="2"/>
-    <col min="3" max="3" width="22.5803571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.1964285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59.4642857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="4"/>
-    <col min="8" max="8" width="16.2589285714286" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="2" customWidth="1"/>
+    <col min="1" max="2" width="11.5178571428571" style="3"/>
+    <col min="3" max="3" width="22.5803571428571" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.1964285714286" style="3" customWidth="1"/>
+    <col min="5" max="5" width="59.4642857142857" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="5"/>
+    <col min="8" max="8" width="16.2589285714286" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="3" customWidth="1"/>
     <col min="10" max="1025" width="11.5178571428571"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -2273,30 +2310,30 @@
       <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2308,10 +2345,10 @@
       <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="b">
+      <c r="F2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2319,67 +2356,67 @@
       <c r="A3" s="13">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="b">
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
+      <c r="F5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -2391,98 +2428,98 @@
       <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
+      <c r="F6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
+      <c r="F7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>22</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="b">
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="b">
+      <c r="F9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>24</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="b">
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -2491,10 +2528,10 @@
       <c r="D11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="b">
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -2502,230 +2539,230 @@
       </c>
     </row>
     <row r="12" ht="16" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="b">
+      <c r="F12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:7">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="b">
+      <c r="F13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="15.2" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="b">
+      <c r="F14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="b">
+      <c r="F15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="b">
+      <c r="F16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="b">
+      <c r="F17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="16" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="b">
+      <c r="F18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="15.2" spans="1:7">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="b">
+      <c r="F19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="15.2" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="b">
+      <c r="F20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.2" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="b">
+      <c r="F21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.2" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="b">
+      <c r="F22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="16" spans="1:7">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -2734,18 +2771,18 @@
       <c r="D23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="b">
+      <c r="F23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="16" spans="1:7">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2757,58 +2794,58 @@
       <c r="E24" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="b">
+      <c r="F24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="15.2" spans="1:7">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="b">
+      <c r="F25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.2" spans="1:7">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="b">
+      <c r="F26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="16" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -2820,10 +2857,10 @@
       <c r="E27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4" t="b">
+      <c r="F27" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2851,31 +2888,31 @@
   <sheetPr/>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="L21" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.30357142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.3035714285714" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.2232142857143" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.5178571428571" style="2"/>
-    <col min="7" max="7" width="19.6964285714286" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5178571428571" style="4"/>
-    <col min="9" max="9" width="17.0535714285714" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.6339285714286" style="2" customWidth="1"/>
-    <col min="11" max="11" width="39.1607142857143" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.8214285714286" style="2" customWidth="1"/>
-    <col min="13" max="13" width="50.5892857142857" style="2" customWidth="1"/>
-    <col min="14" max="15" width="11.5178571428571" style="2"/>
-    <col min="16" max="16" width="11.5178571428571" style="4"/>
-    <col min="17" max="17" width="11.5178571428571" style="2"/>
+    <col min="1" max="1" width="5.30357142857143" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.3035714285714" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.2232142857143" style="4" customWidth="1"/>
+    <col min="4" max="6" width="11.5178571428571" style="3"/>
+    <col min="7" max="7" width="19.6964285714286" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5178571428571" style="5"/>
+    <col min="9" max="9" width="17.0535714285714" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.6339285714286" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.1607142857143" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.8214285714286" style="3" customWidth="1"/>
+    <col min="13" max="13" width="50.5892857142857" style="3" customWidth="1"/>
+    <col min="14" max="15" width="11.5178571428571" style="3"/>
+    <col min="16" max="16" width="11.5178571428571" style="5"/>
+    <col min="17" max="17" width="11.5178571428571" style="3"/>
     <col min="18" max="1025" width="11.5178571428571"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:17">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2884,16 +2921,16 @@
       <c r="C1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -2902,33 +2939,33 @@
       <c r="I1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2937,16 +2974,16 @@
       <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="9" t="b">
@@ -2955,31 +2992,31 @@
       <c r="I2" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2988,16 +3025,16 @@
       <c r="C3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H3" s="9" t="b">
@@ -3006,31 +3043,31 @@
       <c r="I3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>111</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3039,16 +3076,16 @@
       <c r="C4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H4" s="9" t="b">
@@ -3057,31 +3094,31 @@
       <c r="I4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>118</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3090,16 +3127,16 @@
       <c r="C5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>124</v>
       </c>
       <c r="H5" s="9" t="b">
@@ -3108,29 +3145,29 @@
       <c r="I5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>125</v>
       </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -3139,16 +3176,16 @@
       <c r="C6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H6" s="9" t="b">
@@ -3157,29 +3194,29 @@
       <c r="I6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>132</v>
       </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3188,16 +3225,16 @@
       <c r="C7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>124</v>
       </c>
       <c r="H7" s="9" t="b">
@@ -3206,29 +3243,29 @@
       <c r="I7" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3237,16 +3274,16 @@
       <c r="C8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H8" s="9" t="b">
@@ -3255,29 +3292,29 @@
       <c r="I8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>144</v>
       </c>
       <c r="L8" s="11"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3286,16 +3323,16 @@
       <c r="C9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H9" s="9" t="b">
@@ -3304,29 +3341,29 @@
       <c r="I9" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L9" s="11"/>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3335,16 +3372,16 @@
       <c r="C10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H10" s="9" t="b">
@@ -3353,29 +3390,29 @@
       <c r="I10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>156</v>
       </c>
       <c r="L10" s="11"/>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3384,16 +3421,16 @@
       <c r="C11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H11" s="9" t="b">
@@ -3402,29 +3439,29 @@
       <c r="I11" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>161</v>
       </c>
       <c r="L11" s="11"/>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3433,16 +3470,16 @@
       <c r="C12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H12" s="9" t="b">
@@ -3451,29 +3488,29 @@
       <c r="I12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>165</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -3482,16 +3519,16 @@
       <c r="C13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>170</v>
       </c>
       <c r="H13" s="9" t="b">
@@ -3500,29 +3537,29 @@
       <c r="I13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>171</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3531,16 +3568,16 @@
       <c r="C14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="9" t="b">
@@ -3549,29 +3586,29 @@
       <c r="I14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="2" t="s">
         <v>178</v>
       </c>
       <c r="L14" s="11"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3580,16 +3617,16 @@
       <c r="C15" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>184</v>
       </c>
       <c r="H15" s="9" t="b">
@@ -3598,29 +3635,29 @@
       <c r="I15" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="2" t="s">
         <v>185</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3629,16 +3666,16 @@
       <c r="C16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H16" s="9" t="b">
@@ -3647,29 +3684,29 @@
       <c r="I16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>190</v>
       </c>
       <c r="L16" s="11"/>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="5">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="s">
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3678,16 +3715,16 @@
       <c r="C17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>196</v>
       </c>
       <c r="H17" s="9" t="b">
@@ -3696,29 +3733,29 @@
       <c r="I17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>197</v>
       </c>
       <c r="L17" s="11"/>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="s">
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -3727,16 +3764,16 @@
       <c r="C18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>196</v>
       </c>
       <c r="H18" s="9" t="b">
@@ -3745,29 +3782,29 @@
       <c r="I18" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="2" t="s">
         <v>202</v>
       </c>
       <c r="L18" s="11"/>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3776,16 +3813,16 @@
       <c r="C19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>208</v>
       </c>
       <c r="H19" s="9" t="b">
@@ -3794,29 +3831,29 @@
       <c r="I19" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="2" t="s">
         <v>209</v>
       </c>
       <c r="L19" s="11"/>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -3825,16 +3862,16 @@
       <c r="C20" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>196</v>
       </c>
       <c r="H20" s="9" t="b">
@@ -3843,29 +3880,29 @@
       <c r="I20" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="2" t="s">
         <v>214</v>
       </c>
       <c r="L20" s="11"/>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3874,16 +3911,16 @@
       <c r="C21" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H21" s="9" t="b">
@@ -3892,29 +3929,29 @@
       <c r="I21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L21" s="11"/>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P21" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3923,16 +3960,16 @@
       <c r="C22" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H22" s="9" t="b">
@@ -3941,29 +3978,29 @@
       <c r="I22" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L22" s="11"/>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P22" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3972,16 +4009,16 @@
       <c r="C23" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H23" s="9" t="b">
@@ -3990,29 +4027,29 @@
       <c r="I23" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L23" s="11"/>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="2" t="s">
         <v>216</v>
       </c>
       <c r="P23" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -4021,16 +4058,16 @@
       <c r="C24" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H24" s="9" t="b">
@@ -4039,29 +4076,29 @@
       <c r="I24" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P24" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4070,16 +4107,16 @@
       <c r="C25" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H25" s="9" t="b">
@@ -4088,29 +4125,29 @@
       <c r="I25" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P25" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4119,16 +4156,16 @@
       <c r="C26" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>177</v>
       </c>
       <c r="H26" s="9" t="b">
@@ -4137,29 +4174,29 @@
       <c r="I26" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L26" s="11"/>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="2" t="s">
         <v>238</v>
       </c>
       <c r="P26" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -4168,16 +4205,16 @@
       <c r="C27" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H27" s="9" t="b">
@@ -4186,29 +4223,29 @@
       <c r="I27" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N27" s="5">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
         <v>35</v>
       </c>
       <c r="P27" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4217,16 +4254,16 @@
       <c r="C28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H28" s="9" t="b">
@@ -4235,29 +4272,29 @@
       <c r="I28" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L28" s="11"/>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N28" s="5">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
         <v>35</v>
       </c>
       <c r="P28" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -4266,16 +4303,16 @@
       <c r="C29" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H29" s="9" t="b">
@@ -4284,29 +4321,29 @@
       <c r="I29" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
         <v>35</v>
       </c>
       <c r="P29" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -4315,16 +4352,16 @@
       <c r="C30" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H30" s="9" t="b">
@@ -4333,29 +4370,29 @@
       <c r="I30" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L30" s="11"/>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
         <v>35</v>
       </c>
       <c r="P30" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4364,16 +4401,16 @@
       <c r="C31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H31" s="9" t="b">
@@ -4382,29 +4419,29 @@
       <c r="I31" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L31" s="11"/>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
         <v>35</v>
       </c>
       <c r="P31" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -4413,16 +4450,16 @@
       <c r="C32" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H32" s="9" t="b">
@@ -4431,29 +4468,29 @@
       <c r="I32" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L32" s="11"/>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N32" s="5">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5">
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
         <v>35</v>
       </c>
       <c r="P32" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4462,16 +4499,16 @@
       <c r="C33" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H33" s="9" t="b">
@@ -4480,29 +4517,29 @@
       <c r="I33" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L33" s="11"/>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N33" s="5">
-        <v>1</v>
-      </c>
-      <c r="O33" s="5">
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
         <v>35</v>
       </c>
       <c r="P33" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -4511,16 +4548,16 @@
       <c r="C34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H34" s="9" t="b">
@@ -4529,29 +4566,29 @@
       <c r="I34" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L34" s="11"/>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N34" s="5">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5">
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
         <v>35</v>
       </c>
       <c r="P34" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="2"/>
     </row>
     <row r="35" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4560,16 +4597,16 @@
       <c r="C35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H35" s="9" t="b">
@@ -4578,29 +4615,29 @@
       <c r="I35" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L35" s="11"/>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N35" s="5">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5">
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
         <v>35</v>
       </c>
       <c r="P35" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -4609,16 +4646,16 @@
       <c r="C36" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H36" s="9" t="b">
@@ -4627,29 +4664,29 @@
       <c r="I36" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L36" s="11"/>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N36" s="5">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5">
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
         <v>35</v>
       </c>
       <c r="P36" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -4658,16 +4695,16 @@
       <c r="C37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H37" s="9" t="b">
@@ -4676,29 +4713,29 @@
       <c r="I37" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L37" s="11"/>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N37" s="5">
-        <v>1</v>
-      </c>
-      <c r="O37" s="5">
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
         <v>35</v>
       </c>
       <c r="P37" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -4707,16 +4744,16 @@
       <c r="C38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H38" s="9" t="b">
@@ -4725,29 +4762,29 @@
       <c r="I38" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L38" s="11"/>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N38" s="5">
-        <v>1</v>
-      </c>
-      <c r="O38" s="5">
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
         <v>35</v>
       </c>
       <c r="P38" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="2"/>
     </row>
     <row r="39" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -4756,16 +4793,16 @@
       <c r="C39" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H39" s="9" t="b">
@@ -4774,31 +4811,31 @@
       <c r="I39" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N39" s="5">
-        <v>1</v>
-      </c>
-      <c r="O39" s="5">
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
         <v>35</v>
       </c>
       <c r="P39" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="2"/>
     </row>
     <row r="40" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -4807,16 +4844,16 @@
       <c r="C40" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H40" s="9" t="b">
@@ -4825,31 +4862,31 @@
       <c r="I40" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N40" s="5">
-        <v>1</v>
-      </c>
-      <c r="O40" s="5">
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
         <v>35</v>
       </c>
       <c r="P40" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -4858,16 +4895,16 @@
       <c r="C41" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H41" s="9" t="b">
@@ -4876,31 +4913,31 @@
       <c r="I41" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N41" s="5">
-        <v>1</v>
-      </c>
-      <c r="O41" s="5">
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
         <v>35</v>
       </c>
       <c r="P41" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -4909,16 +4946,16 @@
       <c r="C42" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H42" s="9" t="b">
@@ -4927,31 +4964,31 @@
       <c r="I42" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N42" s="5">
-        <v>1</v>
-      </c>
-      <c r="O42" s="5">
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
         <v>35</v>
       </c>
       <c r="P42" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="2"/>
     </row>
     <row r="43" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -4960,16 +4997,16 @@
       <c r="C43" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H43" s="9" t="b">
@@ -4978,31 +5015,31 @@
       <c r="I43" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N43" s="5">
-        <v>1</v>
-      </c>
-      <c r="O43" s="5">
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
         <v>35</v>
       </c>
       <c r="P43" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="2"/>
     </row>
     <row r="44" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -5011,16 +5048,16 @@
       <c r="C44" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H44" s="9" t="b">
@@ -5029,31 +5066,31 @@
       <c r="I44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N44" s="5">
-        <v>1</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
         <v>35</v>
       </c>
       <c r="P44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="2"/>
     </row>
     <row r="45" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -5062,16 +5099,16 @@
       <c r="C45" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="2" t="s">
         <v>244</v>
       </c>
       <c r="H45" s="9" t="b">
@@ -5080,31 +5117,31 @@
       <c r="I45" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N45" s="5">
-        <v>1</v>
-      </c>
-      <c r="O45" s="5">
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2">
         <v>35</v>
       </c>
       <c r="P45" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q45" s="5"/>
+      <c r="Q45" s="2"/>
     </row>
     <row r="46" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -5113,16 +5150,16 @@
       <c r="C46" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="2">
         <v>49</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H46" s="9" t="b">
@@ -5131,31 +5168,31 @@
       <c r="I46" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N46" s="5">
-        <v>1</v>
-      </c>
-      <c r="O46" s="5">
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
         <v>35</v>
       </c>
       <c r="P46" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="2"/>
     </row>
     <row r="47" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -5164,16 +5201,16 @@
       <c r="C47" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="2">
         <v>49</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H47" s="9" t="b">
@@ -5182,31 +5219,31 @@
       <c r="I47" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N47" s="5">
-        <v>1</v>
-      </c>
-      <c r="O47" s="5">
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2">
         <v>35</v>
       </c>
       <c r="P47" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="2"/>
     </row>
     <row r="48" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5215,16 +5252,16 @@
       <c r="C48" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="2">
         <v>49</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H48" s="9" t="b">
@@ -5233,31 +5270,31 @@
       <c r="I48" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N48" s="5">
-        <v>1</v>
-      </c>
-      <c r="O48" s="5">
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2">
         <v>35</v>
       </c>
       <c r="P48" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="2"/>
     </row>
     <row r="49" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5266,16 +5303,16 @@
       <c r="C49" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="2">
         <v>49</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H49" s="9" t="b">
@@ -5284,31 +5321,31 @@
       <c r="I49" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N49" s="5">
-        <v>1</v>
-      </c>
-      <c r="O49" s="5">
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2">
         <v>35</v>
       </c>
       <c r="P49" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q49" s="5"/>
+      <c r="Q49" s="2"/>
     </row>
     <row r="50" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -5317,16 +5354,16 @@
       <c r="C50" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="2">
         <v>49</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H50" s="9" t="b">
@@ -5335,31 +5372,31 @@
       <c r="I50" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N50" s="5">
-        <v>1</v>
-      </c>
-      <c r="O50" s="5">
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2">
         <v>35</v>
       </c>
       <c r="P50" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="2"/>
     </row>
     <row r="51" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5368,16 +5405,16 @@
       <c r="C51" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="2">
         <v>49</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H51" s="9" t="b">
@@ -5386,31 +5423,31 @@
       <c r="I51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N51" s="5">
-        <v>1</v>
-      </c>
-      <c r="O51" s="5">
+      <c r="N51" s="2">
+        <v>1</v>
+      </c>
+      <c r="O51" s="2">
         <v>35</v>
       </c>
       <c r="P51" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q51" s="5"/>
+      <c r="Q51" s="2"/>
     </row>
     <row r="52" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5419,16 +5456,16 @@
       <c r="C52" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="2">
         <v>49</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H52" s="9" t="b">
@@ -5437,31 +5474,31 @@
       <c r="I52" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L52" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N52" s="5">
-        <v>1</v>
-      </c>
-      <c r="O52" s="5">
+      <c r="N52" s="2">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
         <v>35</v>
       </c>
       <c r="P52" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="2"/>
     </row>
     <row r="53" ht="16.35" customHeight="1" spans="1:17">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -5470,16 +5507,16 @@
       <c r="C53" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="2">
         <v>49</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H53" s="9" t="b">
@@ -5488,31 +5525,31 @@
       <c r="I53" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L53" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N53" s="5">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5">
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
         <v>35</v>
       </c>
       <c r="P53" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="2"/>
     </row>
     <row r="54" ht="16" spans="1:17">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -5521,16 +5558,16 @@
       <c r="C54" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="2">
         <v>49</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H54" s="9" t="b">
@@ -5539,31 +5576,31 @@
       <c r="I54" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N54" s="5">
-        <v>1</v>
-      </c>
-      <c r="O54" s="5">
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
         <v>35</v>
       </c>
       <c r="P54" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q54" s="5"/>
+      <c r="Q54" s="2"/>
     </row>
     <row r="55" ht="16" spans="1:17">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5572,16 +5609,16 @@
       <c r="C55" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H55" s="9" t="b">
@@ -5590,31 +5627,31 @@
       <c r="I55" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L55" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N55" s="5">
-        <v>1</v>
-      </c>
-      <c r="O55" s="5">
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
+      <c r="O55" s="2">
         <v>35</v>
       </c>
       <c r="P55" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q55" s="5"/>
+      <c r="Q55" s="2"/>
     </row>
     <row r="56" ht="16" spans="1:17">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -5623,16 +5660,16 @@
       <c r="C56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H56" s="9" t="b">
@@ -5641,31 +5678,31 @@
       <c r="I56" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L56" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N56" s="5">
-        <v>1</v>
-      </c>
-      <c r="O56" s="5">
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
         <v>35</v>
       </c>
       <c r="P56" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="2"/>
     </row>
     <row r="57" ht="16" spans="1:17">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -5674,16 +5711,16 @@
       <c r="C57" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H57" s="9" t="b">
@@ -5692,31 +5729,31 @@
       <c r="I57" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L57" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N57" s="5">
-        <v>1</v>
-      </c>
-      <c r="O57" s="5">
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
         <v>35</v>
       </c>
       <c r="P57" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q57" s="5"/>
+      <c r="Q57" s="2"/>
     </row>
     <row r="58" ht="16" spans="1:17">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -5725,16 +5762,16 @@
       <c r="C58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H58" s="9" t="b">
@@ -5743,31 +5780,31 @@
       <c r="I58" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L58" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N58" s="5">
-        <v>1</v>
-      </c>
-      <c r="O58" s="5">
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2">
         <v>35</v>
       </c>
       <c r="P58" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q58" s="5"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" ht="16" spans="1:17">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5776,16 +5813,16 @@
       <c r="C59" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H59" s="9" t="b">
@@ -5794,31 +5831,31 @@
       <c r="I59" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L59" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N59" s="5">
-        <v>1</v>
-      </c>
-      <c r="O59" s="5">
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
         <v>35</v>
       </c>
       <c r="P59" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q59" s="5"/>
+      <c r="Q59" s="2"/>
     </row>
     <row r="60" ht="16" spans="1:17">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -5827,16 +5864,16 @@
       <c r="C60" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H60" s="9" t="b">
@@ -5845,31 +5882,31 @@
       <c r="I60" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N60" s="5">
-        <v>1</v>
-      </c>
-      <c r="O60" s="5">
+      <c r="N60" s="2">
+        <v>1</v>
+      </c>
+      <c r="O60" s="2">
         <v>35</v>
       </c>
       <c r="P60" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q60" s="5"/>
+      <c r="Q60" s="2"/>
     </row>
     <row r="61" ht="16" spans="1:17">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -5878,16 +5915,16 @@
       <c r="C61" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H61" s="9" t="b">
@@ -5896,31 +5933,31 @@
       <c r="I61" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L61" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N61" s="5">
-        <v>1</v>
-      </c>
-      <c r="O61" s="5">
+      <c r="N61" s="2">
+        <v>1</v>
+      </c>
+      <c r="O61" s="2">
         <v>35</v>
       </c>
       <c r="P61" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q61" s="5"/>
+      <c r="Q61" s="2"/>
     </row>
     <row r="62" ht="16" spans="1:17">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -5929,16 +5966,16 @@
       <c r="C62" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H62" s="9" t="b">
@@ -5947,31 +5984,31 @@
       <c r="I62" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N62" s="5">
-        <v>1</v>
-      </c>
-      <c r="O62" s="5">
+      <c r="N62" s="2">
+        <v>1</v>
+      </c>
+      <c r="O62" s="2">
         <v>35</v>
       </c>
       <c r="P62" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="2"/>
     </row>
     <row r="63" ht="16" spans="1:17">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -5980,16 +6017,16 @@
       <c r="C63" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H63" s="9" t="b">
@@ -5998,28 +6035,28 @@
       <c r="I63" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N63" s="5">
-        <v>1</v>
-      </c>
-      <c r="O63" s="5">
+      <c r="N63" s="2">
+        <v>1</v>
+      </c>
+      <c r="O63" s="2">
         <v>35</v>
       </c>
       <c r="P63" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -6036,8 +6073,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="2"/>
@@ -6332,4 +6369,134 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="33.3303571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" ht="15.2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" ht="15.2" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" ht="15.2" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" ht="15.2" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" ht="15.2" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/RootInn.xlsx
+++ b/data/RootInn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
   <si>
     <t>id</t>
   </si>
@@ -1197,25 +1197,43 @@
     <t>images/lottery/1_prize.png</t>
   </si>
   <si>
+    <t>二等奖</t>
+  </si>
+  <si>
     <t>images/lottery/2_prize.png</t>
   </si>
   <si>
+    <t>三等奖</t>
+  </si>
+  <si>
     <t>images/lottery/3_prize.png</t>
   </si>
   <si>
+    <t>四等奖</t>
+  </si>
+  <si>
     <t>images/lottery/4_prize.png</t>
   </si>
   <si>
+    <t>五等奖</t>
+  </si>
+  <si>
     <t>images/lottery/5_prize.png</t>
   </si>
   <si>
+    <t>六等奖</t>
+  </si>
+  <si>
     <t>images/lottery/6_prize.png</t>
   </si>
   <si>
+    <t>七等奖</t>
+  </si>
+  <si>
     <t>images/lottery/7_prize.png</t>
   </si>
   <si>
-    <t>images/lottery/8_prize.png</t>
+    <t>谢谢参与</t>
   </si>
   <si>
     <t>images/lottery/thanks.png</t>
@@ -6374,10 +6392,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="2"/>
@@ -6409,10 +6427,10 @@
     </row>
     <row r="3" ht="15.2" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -6420,10 +6438,10 @@
     </row>
     <row r="4" ht="15.2" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -6431,10 +6449,10 @@
     </row>
     <row r="5" ht="15.2" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -6442,10 +6460,10 @@
     </row>
     <row r="6" ht="15.2" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C6">
         <v>100000</v>
@@ -6453,10 +6471,10 @@
     </row>
     <row r="7" ht="15.2" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C7">
         <v>200000</v>
@@ -6464,10 +6482,10 @@
     </row>
     <row r="8" ht="15.2" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C8">
         <v>300000</v>
@@ -6475,23 +6493,12 @@
     </row>
     <row r="9" ht="15.2" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C9">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="10" ht="15.2" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10">
         <v>500000</v>
       </c>
     </row>
